--- a/sy-2×2,4×5高阶模型/高阶.xlsx
+++ b/sy-2×2,4×5高阶模型/高阶.xlsx
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
